--- a/Proyecto_Final/Documentacion_G5/Evidencias/Backlog Sprint/BackLog_y_Sprint.xlsx
+++ b/Proyecto_Final/Documentacion_G5/Evidencias/Backlog Sprint/BackLog_y_Sprint.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>t</t>
   </si>
@@ -153,30 +153,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>SPRINT 2</t>
-  </si>
-  <si>
-    <t>REQ002-1</t>
-  </si>
-  <si>
-    <t>Configurar sistema de alertas automáticas</t>
-  </si>
-  <si>
-    <t>Yandry Velez</t>
-  </si>
-  <si>
-    <t>REQ002-2</t>
-  </si>
-  <si>
-    <t>Crear informe resumido de pagos vencidos</t>
-  </si>
-  <si>
-    <t>REQ002-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implementar recordatorio por correo electrónico</t>
   </si>
 </sst>
 </file>
@@ -244,6 +220,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -255,13 +236,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +260,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8EAADB"/>
         <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -324,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -362,17 +344,19 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1894,69 +1878,38 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12">
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="21"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14">
       <c r="B14" s="13"/>
@@ -1970,84 +1923,49 @@
     </row>
     <row r="15">
       <c r="B15" s="13"/>
-      <c r="C15" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="25"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="I15" s="25"/>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14">
-        <v>4.0</v>
-      </c>
+      <c r="I16" s="14"/>
     </row>
     <row r="17">
-      <c r="B17" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14">
-        <v>3.0</v>
-      </c>
+      <c r="I17" s="14"/>
     </row>
     <row r="18">
-      <c r="B18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <v>3.0</v>
-      </c>
+      <c r="I18" s="14"/>
     </row>
     <row r="19">
-      <c r="H19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="24">
-        <v>10.0</v>
-      </c>
+      <c r="H19" s="26"/>
     </row>
     <row r="20">
-      <c r="H20" s="25"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
